--- a/2400_iir_llpf_calc_hilbert.xlsx
+++ b/2400_iir_llpf_calc_hilbert.xlsx
@@ -483,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -538,7 +538,7 @@
       </c>
       <c r="B4">
         <f>2*PI()*B2</f>
-        <v>2199.114857512855</v>
+        <v>1570.7963267948965</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -565,7 +565,7 @@
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>2203.3988785263386</v>
+        <v>1572.3557733236992</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -580,7 +580,7 @@
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>0.15301381100877351</v>
+        <v>0.10919137314747911</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -592,7 +592,7 @@
       </c>
       <c r="B9">
         <f>2+(B8)</f>
-        <v>2.1530138110087735</v>
+        <v>2.1091913731474792</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -601,7 +601,7 @@
       </c>
       <c r="B10">
         <f>2-B8</f>
-        <v>1.8469861889912265</v>
+        <v>1.8908086268525208</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -610,7 +610,7 @@
       </c>
       <c r="B12">
         <f>B10/B9</f>
-        <v>0.85786081796002933</v>
+        <v>0.89646138843765855</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="B13">
         <f>B8/B9</f>
-        <v>7.106959101998532E-2</v>
+        <v>5.1769305781170671E-2</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -634,7 +634,7 @@
       </c>
       <c r="B14">
         <f>B8/B9</f>
-        <v>7.106959101998532E-2</v>
+        <v>5.1769305781170671E-2</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -645,8 +645,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1">
-        <f>1/8</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -672,7 +671,7 @@
       </c>
       <c r="B20" s="1">
         <f>ROUND(B19*B13*B16,0)</f>
-        <v>291</v>
+        <v>1696</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -684,7 +683,7 @@
       </c>
       <c r="B21" s="1">
         <f>ROUND(B19*B14*B16,0)</f>
-        <v>291</v>
+        <v>1696</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -696,7 +695,7 @@
       </c>
       <c r="B22" s="1">
         <f>ROUND(B19*B12,0)</f>
-        <v>28110</v>
+        <v>29375</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -730,7 +729,7 @@
       </c>
       <c r="B1">
         <f>'LoopFilter LPF'!B16</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
